--- a/Data/EC/NIT-9015976855.xlsx
+++ b/Data/EC/NIT-9015976855.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D7C0129-E2B3-4235-8C0E-13AA8ED15C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{95B218E5-08BF-472F-9248-98B3BE0D596D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CBC0370A-0F63-4788-8E5C-41B2BF79C499}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D2CAD7AD-6D7F-4951-ABCE-8EE70552E4CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,55 +65,55 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1047390509</t>
+  </si>
+  <si>
+    <t>JAVIER JESUS VARGAS PEREZ</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>1127584034</t>
+  </si>
+  <si>
+    <t>ALONSO JOSE VELASCO CARRILLO</t>
+  </si>
+  <si>
     <t>1103117470</t>
   </si>
   <si>
     <t>JUAN CAMILO LOPEZ RIOS</t>
   </si>
   <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>1127584034</t>
-  </si>
-  <si>
-    <t>ALONSO JOSE VELASCO CARRILLO</t>
+    <t>1085038750</t>
+  </si>
+  <si>
+    <t>RAUL RUIZ RAMOS</t>
   </si>
   <si>
     <t>1052071317</t>
   </si>
   <si>
     <t>OLGA ISABEL VASQUEZ TEHERAN</t>
-  </si>
-  <si>
-    <t>1047390509</t>
-  </si>
-  <si>
-    <t>JAVIER JESUS VARGAS PEREZ</t>
-  </si>
-  <si>
-    <t>1085038750</t>
-  </si>
-  <si>
-    <t>RAUL RUIZ RAMOS</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -527,7 +527,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA1CF81C-2AE5-06F4-D579-6C27B874139D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB791842-1570-6C39-ABAA-8E9E7B6ED83A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -878,7 +878,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79BA5CF3-6AAA-41B4-9A41-CE0B3C4C13E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B20AA945-45A8-438E-A3CA-AE5AE7C58C3C}">
   <dimension ref="B2:J56"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1056,7 +1056,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>52000</v>
+        <v>32933</v>
       </c>
       <c r="G16" s="18">
         <v>1300000</v>
@@ -1070,13 +1070,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>52000</v>
@@ -1093,16 +1093,16 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>45066</v>
+        <v>52000</v>
       </c>
       <c r="G18" s="18">
         <v>1300000</v>
@@ -1116,16 +1116,16 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>45066</v>
+        <v>52000</v>
       </c>
       <c r="G19" s="18">
         <v>1300000</v>
@@ -1139,13 +1139,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
         <v>52000</v>
@@ -1162,13 +1162,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>20</v>
       </c>
       <c r="F21" s="18">
         <v>52000</v>
@@ -1185,16 +1185,16 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>52000</v>
+        <v>45066</v>
       </c>
       <c r="G22" s="18">
         <v>1300000</v>
@@ -1214,10 +1214,10 @@
         <v>19</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F23" s="18">
-        <v>52000</v>
+        <v>32933</v>
       </c>
       <c r="G23" s="18">
         <v>1300000</v>
@@ -1231,13 +1231,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F24" s="18">
         <v>52000</v>
@@ -1254,13 +1254,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F25" s="18">
         <v>52000</v>
@@ -1277,13 +1277,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F26" s="18">
         <v>52000</v>
@@ -1300,13 +1300,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F27" s="18">
         <v>52000</v>
@@ -1323,13 +1323,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F28" s="18">
         <v>52000</v>
@@ -1346,13 +1346,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F29" s="18">
         <v>52000</v>
@@ -1369,16 +1369,16 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F30" s="18">
-        <v>52000</v>
+        <v>32933</v>
       </c>
       <c r="G30" s="18">
         <v>1300000</v>
@@ -1392,13 +1392,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>22</v>
       </c>
       <c r="F31" s="18">
         <v>52000</v>
@@ -1415,13 +1415,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F32" s="18">
         <v>52000</v>
@@ -1438,13 +1438,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F33" s="18">
         <v>52000</v>
@@ -1461,13 +1461,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F34" s="18">
         <v>52000</v>
@@ -1484,13 +1484,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>22</v>
       </c>
       <c r="F35" s="18">
         <v>52000</v>
@@ -1507,13 +1507,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D36" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="F36" s="18">
         <v>52000</v>
@@ -1530,16 +1530,16 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F37" s="18">
-        <v>52000</v>
+        <v>32933</v>
       </c>
       <c r="G37" s="18">
         <v>1300000</v>
@@ -1553,13 +1553,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F38" s="18">
         <v>52000</v>
@@ -1576,13 +1576,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F39" s="18">
         <v>52000</v>
@@ -1599,13 +1599,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" s="16" t="s">
         <v>14</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="F40" s="18">
         <v>52000</v>
@@ -1622,13 +1622,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F41" s="18">
         <v>52000</v>
@@ -1645,13 +1645,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F42" s="18">
         <v>52000</v>
@@ -1668,13 +1668,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F43" s="18">
         <v>52000</v>
@@ -1691,16 +1691,16 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F44" s="18">
-        <v>52000</v>
+        <v>32933</v>
       </c>
       <c r="G44" s="18">
         <v>1300000</v>
@@ -1714,13 +1714,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F45" s="18">
         <v>52000</v>
@@ -1737,16 +1737,16 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F46" s="18">
-        <v>32933</v>
+        <v>52000</v>
       </c>
       <c r="G46" s="18">
         <v>1300000</v>
@@ -1760,16 +1760,16 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F47" s="18">
-        <v>32933</v>
+        <v>52000</v>
       </c>
       <c r="G47" s="18">
         <v>1300000</v>
@@ -1783,16 +1783,16 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F48" s="18">
-        <v>32933</v>
+        <v>52000</v>
       </c>
       <c r="G48" s="18">
         <v>1300000</v>
@@ -1806,16 +1806,16 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F49" s="18">
-        <v>32933</v>
+        <v>52000</v>
       </c>
       <c r="G49" s="18">
         <v>1300000</v>
@@ -1829,16 +1829,16 @@
         <v>8</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D50" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E50" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E50" s="22" t="s">
-        <v>25</v>
-      </c>
       <c r="F50" s="24">
-        <v>32933</v>
+        <v>45066</v>
       </c>
       <c r="G50" s="24">
         <v>1300000</v>

--- a/Data/EC/NIT-9015976855.xlsx
+++ b/Data/EC/NIT-9015976855.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95B218E5-08BF-472F-9248-98B3BE0D596D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{787E1A73-2D54-4126-9CC8-6BC9CCBA625D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D2CAD7AD-6D7F-4951-ABCE-8EE70552E4CE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F776C255-986D-40F7-A0BD-841E6F403E3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,49 +71,49 @@
     <t>JAVIER JESUS VARGAS PEREZ</t>
   </si>
   <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>1127584034</t>
+  </si>
+  <si>
+    <t>ALONSO JOSE VELASCO CARRILLO</t>
+  </si>
+  <si>
+    <t>1103117470</t>
+  </si>
+  <si>
+    <t>JUAN CAMILO LOPEZ RIOS</t>
+  </si>
+  <si>
+    <t>1085038750</t>
+  </si>
+  <si>
+    <t>RAUL RUIZ RAMOS</t>
+  </si>
+  <si>
+    <t>1052071317</t>
+  </si>
+  <si>
+    <t>OLGA ISABEL VASQUEZ TEHERAN</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
     <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>1127584034</t>
-  </si>
-  <si>
-    <t>ALONSO JOSE VELASCO CARRILLO</t>
-  </si>
-  <si>
-    <t>1103117470</t>
-  </si>
-  <si>
-    <t>JUAN CAMILO LOPEZ RIOS</t>
-  </si>
-  <si>
-    <t>1085038750</t>
-  </si>
-  <si>
-    <t>RAUL RUIZ RAMOS</t>
-  </si>
-  <si>
-    <t>1052071317</t>
-  </si>
-  <si>
-    <t>OLGA ISABEL VASQUEZ TEHERAN</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -212,7 +212,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -225,9 +227,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -427,23 +427,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -471,10 +471,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -527,7 +527,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB791842-1570-6C39-ABAA-8E9E7B6ED83A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AB3BF4A-5A56-39FD-F359-DC26367216E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -878,7 +878,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B20AA945-45A8-438E-A3CA-AE5AE7C58C3C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A4D4C5F-7BD2-4635-9C59-5EE49FBB44A0}">
   <dimension ref="B2:J56"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1056,7 +1056,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>32933</v>
+        <v>45066</v>
       </c>
       <c r="G16" s="18">
         <v>1300000</v>
@@ -1070,13 +1070,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>52000</v>
@@ -1093,13 +1093,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
         <v>52000</v>
@@ -1116,13 +1116,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F19" s="18">
         <v>52000</v>
@@ -1139,16 +1139,16 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F20" s="18">
-        <v>52000</v>
+        <v>45066</v>
       </c>
       <c r="G20" s="18">
         <v>1300000</v>
@@ -1168,7 +1168,7 @@
         <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F21" s="18">
         <v>52000</v>
@@ -1185,16 +1185,16 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F22" s="18">
-        <v>45066</v>
+        <v>52000</v>
       </c>
       <c r="G22" s="18">
         <v>1300000</v>
@@ -1208,16 +1208,16 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F23" s="18">
-        <v>32933</v>
+        <v>52000</v>
       </c>
       <c r="G23" s="18">
         <v>1300000</v>
@@ -1231,13 +1231,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F24" s="18">
         <v>52000</v>
@@ -1260,7 +1260,7 @@
         <v>19</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
         <v>52000</v>
@@ -1277,13 +1277,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
         <v>52000</v>
@@ -1300,13 +1300,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F27" s="18">
         <v>52000</v>
@@ -1323,13 +1323,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F28" s="18">
         <v>52000</v>
@@ -1346,13 +1346,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F29" s="18">
         <v>52000</v>
@@ -1369,16 +1369,16 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D30" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E30" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F30" s="18">
-        <v>32933</v>
+        <v>52000</v>
       </c>
       <c r="G30" s="18">
         <v>1300000</v>
@@ -1392,13 +1392,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F31" s="18">
         <v>52000</v>
@@ -1415,13 +1415,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F32" s="18">
         <v>52000</v>
@@ -1438,13 +1438,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F33" s="18">
         <v>52000</v>
@@ -1461,13 +1461,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F34" s="18">
         <v>52000</v>
@@ -1484,13 +1484,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F35" s="18">
         <v>52000</v>
@@ -1507,13 +1507,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F36" s="18">
         <v>52000</v>
@@ -1530,16 +1530,16 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D37" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E37" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F37" s="18">
-        <v>32933</v>
+        <v>52000</v>
       </c>
       <c r="G37" s="18">
         <v>1300000</v>
@@ -1553,13 +1553,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D38" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="16" t="s">
         <v>23</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>12</v>
       </c>
       <c r="F38" s="18">
         <v>52000</v>
@@ -1576,13 +1576,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D39" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" s="16" t="s">
         <v>23</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>13</v>
       </c>
       <c r="F39" s="18">
         <v>52000</v>
@@ -1599,13 +1599,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D40" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" s="16" t="s">
         <v>23</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="F40" s="18">
         <v>52000</v>
@@ -1622,13 +1622,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F41" s="18">
         <v>52000</v>
@@ -1645,13 +1645,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F42" s="18">
         <v>52000</v>
@@ -1668,13 +1668,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F43" s="18">
         <v>52000</v>
@@ -1691,16 +1691,16 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D44" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F44" s="18">
-        <v>32933</v>
+        <v>52000</v>
       </c>
       <c r="G44" s="18">
         <v>1300000</v>
@@ -1714,13 +1714,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="D45" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>12</v>
       </c>
       <c r="F45" s="18">
         <v>52000</v>
@@ -1737,16 +1737,16 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D46" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E46" s="16" t="s">
-        <v>13</v>
-      </c>
       <c r="F46" s="18">
-        <v>52000</v>
+        <v>32933</v>
       </c>
       <c r="G46" s="18">
         <v>1300000</v>
@@ -1760,16 +1760,16 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D47" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E47" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F47" s="18">
-        <v>52000</v>
+        <v>32933</v>
       </c>
       <c r="G47" s="18">
         <v>1300000</v>
@@ -1783,16 +1783,16 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D48" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E48" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F48" s="18">
-        <v>52000</v>
+        <v>32933</v>
       </c>
       <c r="G48" s="18">
         <v>1300000</v>
@@ -1806,16 +1806,16 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D49" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E49" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F49" s="18">
-        <v>52000</v>
+        <v>32933</v>
       </c>
       <c r="G49" s="18">
         <v>1300000</v>
@@ -1829,16 +1829,16 @@
         <v>8</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D50" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E50" s="22" t="s">
-        <v>17</v>
-      </c>
       <c r="F50" s="24">
-        <v>45066</v>
+        <v>32933</v>
       </c>
       <c r="G50" s="24">
         <v>1300000</v>
